--- a/10-razpredelnice/poraba.xlsx
+++ b/10-razpredelnice/poraba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp70744\racunalniski-praktikum\10-razpredelnice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\racunalniski-praktikum\10-razpredelnice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22B327F-4333-43FE-AA5F-8ADDE0DF0EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D1205E-3A0D-4D97-944A-7FD241A649B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Poraba" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Poraba!$B$2:$G$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="33" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Bencin</t>
   </si>
@@ -76,6 +79,39 @@
   <si>
     <t>Prikaz</t>
   </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>okt</t>
+  </si>
+  <si>
+    <t>Mesec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Skupaj km</t>
+  </si>
+  <si>
+    <t>Vrednosti</t>
+  </si>
+  <si>
+    <t>Povprečna poraba</t>
+  </si>
 </sst>
 </file>
 
@@ -83,9 +119,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000\ &quot;€/l&quot;"/>
-    <numFmt numFmtId="167" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,12 +129,6 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.9"/>
-      <color rgb="FF616161"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,56 +151,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.9"/>
-        <color rgb="FF616161"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="dd\.mm\.yyyy"/>
+      <protection hidden="1"/>
+    </dxf>
+    <dxf>
+      <protection hidden="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEBF1DE"/>
-          <bgColor rgb="FFEBF1DE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF9BBB59"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9BBB59"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="dd\.mm\.yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -201,6 +211,42 @@
         <left style="thin">
           <color rgb="FF9BBB59"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF9BBB59"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BBB59"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.9"/>
+        <color rgb="FF616161"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEBF1DE"/>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right/>
         <top style="thin">
           <color rgb="FF9BBB59"/>
@@ -242,15 +288,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -264,6 +301,9 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -275,6 +315,1197 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gašper Počivavšek" refreshedDate="45638.694717592596" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="19" xr:uid="{359162CD-3C95-4F65-B7BF-50666403002B}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="realna_poraba_cupra__2"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Datum" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-05-05T00:00:00" maxDate="2023-10-15T00:00:00" count="19">
+        <d v="2023-05-05T00:00:00"/>
+        <d v="2023-05-13T00:00:00"/>
+        <d v="2023-05-22T00:00:00"/>
+        <d v="2023-05-27T00:00:00"/>
+        <d v="2023-06-08T00:00:00"/>
+        <d v="2023-06-16T00:00:00"/>
+        <d v="2023-06-22T00:00:00"/>
+        <d v="2023-07-06T00:00:00"/>
+        <d v="2023-07-15T00:00:00"/>
+        <d v="2023-07-22T00:00:00"/>
+        <d v="2023-07-31T00:00:00"/>
+        <d v="2023-08-13T00:00:00"/>
+        <d v="2023-08-25T00:00:00"/>
+        <d v="2023-09-06T00:00:00"/>
+        <d v="2023-09-15T00:00:00"/>
+        <d v="2023-09-22T00:00:00"/>
+        <d v="2023-09-29T00:00:00"/>
+        <d v="2023-10-06T00:00:00"/>
+        <d v="2023-10-14T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="8"/>
+    </cacheField>
+    <cacheField name="Litri" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="34.04" maxValue="43.1"/>
+    </cacheField>
+    <cacheField name="Plačano" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="47.04" maxValue="64.099999999999994"/>
+    </cacheField>
+    <cacheField name="Števec" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="41907" maxValue="52176"/>
+    </cacheField>
+    <cacheField name="Prevoženo" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="446" maxValue="683" count="19">
+        <s v=""/>
+        <n v="614"/>
+        <n v="660"/>
+        <n v="515"/>
+        <n v="618"/>
+        <n v="683"/>
+        <n v="549"/>
+        <n v="580"/>
+        <n v="561"/>
+        <n v="563"/>
+        <n v="617"/>
+        <n v="540"/>
+        <n v="598"/>
+        <n v="475"/>
+        <n v="532"/>
+        <n v="446"/>
+        <n v="533"/>
+        <n v="602"/>
+        <n v="583"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Poraba" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="6.31" maxValue="8.1" count="16">
+        <s v=""/>
+        <n v="7.01"/>
+        <n v="6.31"/>
+        <n v="6.61"/>
+        <n v="6.86"/>
+        <n v="6.95"/>
+        <n v="6.98"/>
+        <n v="7.16"/>
+        <n v="6.65"/>
+        <n v="6.89"/>
+        <n v="6.93"/>
+        <n v="7.57"/>
+        <n v="7.28"/>
+        <n v="8.1"/>
+        <n v="7.23"/>
+        <n v="6.45"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Prikaz" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="6.31" maxValue="8.1"/>
+    </cacheField>
+    <cacheField name="Dnevi (Datum)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="days" startDate="2023-05-05T00:00:00" endDate="2023-10-15T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;5.05.2023"/>
+          <s v="1.jan"/>
+          <s v="2.jan"/>
+          <s v="3.jan"/>
+          <s v="4.jan"/>
+          <s v="5.jan"/>
+          <s v="6.jan"/>
+          <s v="7.jan"/>
+          <s v="8.jan"/>
+          <s v="9.jan"/>
+          <s v="10.jan"/>
+          <s v="11.jan"/>
+          <s v="12.jan"/>
+          <s v="13.jan"/>
+          <s v="14.jan"/>
+          <s v="15.jan"/>
+          <s v="16.jan"/>
+          <s v="17.jan"/>
+          <s v="18.jan"/>
+          <s v="19.jan"/>
+          <s v="20.jan"/>
+          <s v="21.jan"/>
+          <s v="22.jan"/>
+          <s v="23.jan"/>
+          <s v="24.jan"/>
+          <s v="25.jan"/>
+          <s v="26.jan"/>
+          <s v="27.jan"/>
+          <s v="28.jan"/>
+          <s v="29.jan"/>
+          <s v="30.jan"/>
+          <s v="31.jan"/>
+          <s v="1.feb"/>
+          <s v="2.feb"/>
+          <s v="3.feb"/>
+          <s v="4.feb"/>
+          <s v="5.feb"/>
+          <s v="6.feb"/>
+          <s v="7.feb"/>
+          <s v="8.feb"/>
+          <s v="9.feb"/>
+          <s v="10.feb"/>
+          <s v="11.feb"/>
+          <s v="12.feb"/>
+          <s v="13.feb"/>
+          <s v="14.feb"/>
+          <s v="15.feb"/>
+          <s v="16.feb"/>
+          <s v="17.feb"/>
+          <s v="18.feb"/>
+          <s v="19.feb"/>
+          <s v="20.feb"/>
+          <s v="21.feb"/>
+          <s v="22.feb"/>
+          <s v="23.feb"/>
+          <s v="24.feb"/>
+          <s v="25.feb"/>
+          <s v="26.feb"/>
+          <s v="27.feb"/>
+          <s v="28.feb"/>
+          <s v="29.feb"/>
+          <s v="1.mar"/>
+          <s v="2.mar"/>
+          <s v="3.mar"/>
+          <s v="4.mar"/>
+          <s v="5.mar"/>
+          <s v="6.mar"/>
+          <s v="7.mar"/>
+          <s v="8.mar"/>
+          <s v="9.mar"/>
+          <s v="10.mar"/>
+          <s v="11.mar"/>
+          <s v="12.mar"/>
+          <s v="13.mar"/>
+          <s v="14.mar"/>
+          <s v="15.mar"/>
+          <s v="16.mar"/>
+          <s v="17.mar"/>
+          <s v="18.mar"/>
+          <s v="19.mar"/>
+          <s v="20.mar"/>
+          <s v="21.mar"/>
+          <s v="22.mar"/>
+          <s v="23.mar"/>
+          <s v="24.mar"/>
+          <s v="25.mar"/>
+          <s v="26.mar"/>
+          <s v="27.mar"/>
+          <s v="28.mar"/>
+          <s v="29.mar"/>
+          <s v="30.mar"/>
+          <s v="31.mar"/>
+          <s v="1.apr"/>
+          <s v="2.apr"/>
+          <s v="3.apr"/>
+          <s v="4.apr"/>
+          <s v="5.apr"/>
+          <s v="6.apr"/>
+          <s v="7.apr"/>
+          <s v="8.apr"/>
+          <s v="9.apr"/>
+          <s v="10.apr"/>
+          <s v="11.apr"/>
+          <s v="12.apr"/>
+          <s v="13.apr"/>
+          <s v="14.apr"/>
+          <s v="15.apr"/>
+          <s v="16.apr"/>
+          <s v="17.apr"/>
+          <s v="18.apr"/>
+          <s v="19.apr"/>
+          <s v="20.apr"/>
+          <s v="21.apr"/>
+          <s v="22.apr"/>
+          <s v="23.apr"/>
+          <s v="24.apr"/>
+          <s v="25.apr"/>
+          <s v="26.apr"/>
+          <s v="27.apr"/>
+          <s v="28.apr"/>
+          <s v="29.apr"/>
+          <s v="30.apr"/>
+          <s v="1.maj"/>
+          <s v="2.maj"/>
+          <s v="3.maj"/>
+          <s v="4.maj"/>
+          <s v="5.maj"/>
+          <s v="6.maj"/>
+          <s v="7.maj"/>
+          <s v="8.maj"/>
+          <s v="9.maj"/>
+          <s v="10.maj"/>
+          <s v="11.maj"/>
+          <s v="12.maj"/>
+          <s v="13.maj"/>
+          <s v="14.maj"/>
+          <s v="15.maj"/>
+          <s v="16.maj"/>
+          <s v="17.maj"/>
+          <s v="18.maj"/>
+          <s v="19.maj"/>
+          <s v="20.maj"/>
+          <s v="21.maj"/>
+          <s v="22.maj"/>
+          <s v="23.maj"/>
+          <s v="24.maj"/>
+          <s v="25.maj"/>
+          <s v="26.maj"/>
+          <s v="27.maj"/>
+          <s v="28.maj"/>
+          <s v="29.maj"/>
+          <s v="30.maj"/>
+          <s v="31.maj"/>
+          <s v="1.jun"/>
+          <s v="2.jun"/>
+          <s v="3.jun"/>
+          <s v="4.jun"/>
+          <s v="5.jun"/>
+          <s v="6.jun"/>
+          <s v="7.jun"/>
+          <s v="8.jun"/>
+          <s v="9.jun"/>
+          <s v="10.jun"/>
+          <s v="11.jun"/>
+          <s v="12.jun"/>
+          <s v="13.jun"/>
+          <s v="14.jun"/>
+          <s v="15.jun"/>
+          <s v="16.jun"/>
+          <s v="17.jun"/>
+          <s v="18.jun"/>
+          <s v="19.jun"/>
+          <s v="20.jun"/>
+          <s v="21.jun"/>
+          <s v="22.jun"/>
+          <s v="23.jun"/>
+          <s v="24.jun"/>
+          <s v="25.jun"/>
+          <s v="26.jun"/>
+          <s v="27.jun"/>
+          <s v="28.jun"/>
+          <s v="29.jun"/>
+          <s v="30.jun"/>
+          <s v="1.jul"/>
+          <s v="2.jul"/>
+          <s v="3.jul"/>
+          <s v="4.jul"/>
+          <s v="5.jul"/>
+          <s v="6.jul"/>
+          <s v="7.jul"/>
+          <s v="8.jul"/>
+          <s v="9.jul"/>
+          <s v="10.jul"/>
+          <s v="11.jul"/>
+          <s v="12.jul"/>
+          <s v="13.jul"/>
+          <s v="14.jul"/>
+          <s v="15.jul"/>
+          <s v="16.jul"/>
+          <s v="17.jul"/>
+          <s v="18.jul"/>
+          <s v="19.jul"/>
+          <s v="20.jul"/>
+          <s v="21.jul"/>
+          <s v="22.jul"/>
+          <s v="23.jul"/>
+          <s v="24.jul"/>
+          <s v="25.jul"/>
+          <s v="26.jul"/>
+          <s v="27.jul"/>
+          <s v="28.jul"/>
+          <s v="29.jul"/>
+          <s v="30.jul"/>
+          <s v="31.jul"/>
+          <s v="1.avg"/>
+          <s v="2.avg"/>
+          <s v="3.avg"/>
+          <s v="4.avg"/>
+          <s v="5.avg"/>
+          <s v="6.avg"/>
+          <s v="7.avg"/>
+          <s v="8.avg"/>
+          <s v="9.avg"/>
+          <s v="10.avg"/>
+          <s v="11.avg"/>
+          <s v="12.avg"/>
+          <s v="13.avg"/>
+          <s v="14.avg"/>
+          <s v="15.avg"/>
+          <s v="16.avg"/>
+          <s v="17.avg"/>
+          <s v="18.avg"/>
+          <s v="19.avg"/>
+          <s v="20.avg"/>
+          <s v="21.avg"/>
+          <s v="22.avg"/>
+          <s v="23.avg"/>
+          <s v="24.avg"/>
+          <s v="25.avg"/>
+          <s v="26.avg"/>
+          <s v="27.avg"/>
+          <s v="28.avg"/>
+          <s v="29.avg"/>
+          <s v="30.avg"/>
+          <s v="31.avg"/>
+          <s v="1.sep"/>
+          <s v="2.sep"/>
+          <s v="3.sep"/>
+          <s v="4.sep"/>
+          <s v="5.sep"/>
+          <s v="6.sep"/>
+          <s v="7.sep"/>
+          <s v="8.sep"/>
+          <s v="9.sep"/>
+          <s v="10.sep"/>
+          <s v="11.sep"/>
+          <s v="12.sep"/>
+          <s v="13.sep"/>
+          <s v="14.sep"/>
+          <s v="15.sep"/>
+          <s v="16.sep"/>
+          <s v="17.sep"/>
+          <s v="18.sep"/>
+          <s v="19.sep"/>
+          <s v="20.sep"/>
+          <s v="21.sep"/>
+          <s v="22.sep"/>
+          <s v="23.sep"/>
+          <s v="24.sep"/>
+          <s v="25.sep"/>
+          <s v="26.sep"/>
+          <s v="27.sep"/>
+          <s v="28.sep"/>
+          <s v="29.sep"/>
+          <s v="30.sep"/>
+          <s v="1.okt"/>
+          <s v="2.okt"/>
+          <s v="3.okt"/>
+          <s v="4.okt"/>
+          <s v="5.okt"/>
+          <s v="6.okt"/>
+          <s v="7.okt"/>
+          <s v="8.okt"/>
+          <s v="9.okt"/>
+          <s v="10.okt"/>
+          <s v="11.okt"/>
+          <s v="12.okt"/>
+          <s v="13.okt"/>
+          <s v="14.okt"/>
+          <s v="15.okt"/>
+          <s v="16.okt"/>
+          <s v="17.okt"/>
+          <s v="18.okt"/>
+          <s v="19.okt"/>
+          <s v="20.okt"/>
+          <s v="21.okt"/>
+          <s v="22.okt"/>
+          <s v="23.okt"/>
+          <s v="24.okt"/>
+          <s v="25.okt"/>
+          <s v="26.okt"/>
+          <s v="27.okt"/>
+          <s v="28.okt"/>
+          <s v="29.okt"/>
+          <s v="30.okt"/>
+          <s v="31.okt"/>
+          <s v="1.nov"/>
+          <s v="2.nov"/>
+          <s v="3.nov"/>
+          <s v="4.nov"/>
+          <s v="5.nov"/>
+          <s v="6.nov"/>
+          <s v="7.nov"/>
+          <s v="8.nov"/>
+          <s v="9.nov"/>
+          <s v="10.nov"/>
+          <s v="11.nov"/>
+          <s v="12.nov"/>
+          <s v="13.nov"/>
+          <s v="14.nov"/>
+          <s v="15.nov"/>
+          <s v="16.nov"/>
+          <s v="17.nov"/>
+          <s v="18.nov"/>
+          <s v="19.nov"/>
+          <s v="20.nov"/>
+          <s v="21.nov"/>
+          <s v="22.nov"/>
+          <s v="23.nov"/>
+          <s v="24.nov"/>
+          <s v="25.nov"/>
+          <s v="26.nov"/>
+          <s v="27.nov"/>
+          <s v="28.nov"/>
+          <s v="29.nov"/>
+          <s v="30.nov"/>
+          <s v="1.dec"/>
+          <s v="2.dec"/>
+          <s v="3.dec"/>
+          <s v="4.dec"/>
+          <s v="5.dec"/>
+          <s v="6.dec"/>
+          <s v="7.dec"/>
+          <s v="8.dec"/>
+          <s v="9.dec"/>
+          <s v="10.dec"/>
+          <s v="11.dec"/>
+          <s v="12.dec"/>
+          <s v="13.dec"/>
+          <s v="14.dec"/>
+          <s v="15.dec"/>
+          <s v="16.dec"/>
+          <s v="17.dec"/>
+          <s v="18.dec"/>
+          <s v="19.dec"/>
+          <s v="20.dec"/>
+          <s v="21.dec"/>
+          <s v="22.dec"/>
+          <s v="23.dec"/>
+          <s v="24.dec"/>
+          <s v="25.dec"/>
+          <s v="26.dec"/>
+          <s v="27.dec"/>
+          <s v="28.dec"/>
+          <s v="29.dec"/>
+          <s v="30.dec"/>
+          <s v="31.dec"/>
+          <s v="&gt;15.10.2023"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Meseci (Datum)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="months" startDate="2023-05-05T00:00:00" endDate="2023-10-15T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;5.05.2023"/>
+          <s v="jan"/>
+          <s v="feb"/>
+          <s v="mar"/>
+          <s v="apr"/>
+          <s v="maj"/>
+          <s v="jun"/>
+          <s v="jul"/>
+          <s v="avg"/>
+          <s v="sep"/>
+          <s v="okt"/>
+          <s v="nov"/>
+          <s v="dec"/>
+          <s v="&gt;15.10.2023"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
+  <r>
+    <x v="0"/>
+    <n v="41.17"/>
+    <n v="58.3"/>
+    <n v="41907"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="43.02"/>
+    <n v="59.8"/>
+    <n v="42521"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7.01"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="41.67"/>
+    <n v="57.92"/>
+    <n v="43181"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="6.31"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="34.04"/>
+    <n v="47.04"/>
+    <n v="43696"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="6.61"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="42.42"/>
+    <n v="59.9"/>
+    <n v="44314"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="6.86"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="43.1"/>
+    <n v="60.86"/>
+    <n v="44997"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="6.31"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="38.18"/>
+    <n v="54.37"/>
+    <n v="45546"/>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="6.95"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="40.659999999999997"/>
+    <n v="58.71"/>
+    <n v="46126"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="7.01"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="39.17"/>
+    <n v="56.56"/>
+    <n v="46687"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="6.98"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="40.29"/>
+    <n v="58.66"/>
+    <n v="47250"/>
+    <x v="9"/>
+    <x v="7"/>
+    <n v="7.16"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="41.01"/>
+    <n v="59.71"/>
+    <n v="47867"/>
+    <x v="10"/>
+    <x v="8"/>
+    <n v="6.65"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="37.18"/>
+    <n v="56.18"/>
+    <n v="48407"/>
+    <x v="11"/>
+    <x v="9"/>
+    <n v="6.89"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="41.46"/>
+    <n v="62.65"/>
+    <n v="49005"/>
+    <x v="12"/>
+    <x v="10"/>
+    <n v="6.93"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="35.97"/>
+    <n v="55.54"/>
+    <n v="49480"/>
+    <x v="13"/>
+    <x v="11"/>
+    <n v="7.57"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="38.74"/>
+    <n v="60.09"/>
+    <n v="50012"/>
+    <x v="14"/>
+    <x v="12"/>
+    <n v="7.28"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="36.130000000000003"/>
+    <n v="56.04"/>
+    <n v="50458"/>
+    <x v="15"/>
+    <x v="13"/>
+    <n v="8.1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="38.51"/>
+    <n v="61.15"/>
+    <n v="50991"/>
+    <x v="16"/>
+    <x v="14"/>
+    <n v="7.23"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="38.840000000000003"/>
+    <n v="61.68"/>
+    <n v="51593"/>
+    <x v="17"/>
+    <x v="15"/>
+    <n v="6.45"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="41.73"/>
+    <n v="64.099999999999994"/>
+    <n v="52176"/>
+    <x v="18"/>
+    <x v="7"/>
+    <n v="7.16"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E4F6998-AEBC-4D8D-823A-258910E3681C}" name="Vrtilna tabela7" cacheId="33" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Vrednosti" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Mesec">
+  <location ref="B23:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="165" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="20">
+        <item x="15"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="18"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="17">
+        <item x="2"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item sd="0" x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Skupaj km" fld="4" baseField="8" baseItem="5"/>
+    <dataField name="Povprečna poraba" fld="5" subtotal="average" baseField="8" baseItem="5" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -301,14 +1532,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B308AD5-65CF-A249-80D4-A2A1301BDB4E}" name="realna_poraba_cupra__2" displayName="realna_poraba_cupra__2" ref="B2:H21" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B2:H21" xr:uid="{4B308AD5-65CF-A249-80D4-A2A1301BDB4E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E4C5B71E-FC31-5C41-A064-103F27749A97}" uniqueName="1" name="Datum" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{6DC2697C-FCB3-8A47-945B-8CD05834AA8C}" uniqueName="2" name="Litri" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{19DBC541-3ADF-4E48-8786-6E42DA219788}" uniqueName="3" name="Plačano" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{3238A9AD-2FC0-0E49-9EE3-7019C05B366B}" uniqueName="4" name="Števec" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{E0B5480D-9C8F-CA4C-941D-AE9FDE0CDFDC}" uniqueName="5" name="Prevoženo" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{1DEAFC6B-8470-6742-BAB3-957B7429D133}" uniqueName="6" name="Poraba" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{911769A8-5CFE-8245-A64B-38797D90A3B5}" uniqueName="11" name="Prikaz" queryTableFieldId="11" dataDxfId="6">
-      <calculatedColumnFormula>realna_poraba_cupra__2[[#This Row],[Poraba]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{E4C5B71E-FC31-5C41-A064-103F27749A97}" uniqueName="1" name="Datum" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{6DC2697C-FCB3-8A47-945B-8CD05834AA8C}" uniqueName="2" name="Litri" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{19DBC541-3ADF-4E48-8786-6E42DA219788}" uniqueName="3" name="Plačano" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3238A9AD-2FC0-0E49-9EE3-7019C05B366B}" uniqueName="4" name="Števec" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{E0B5480D-9C8F-CA4C-941D-AE9FDE0CDFDC}" uniqueName="5" name="Prevoženo" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{1DEAFC6B-8470-6742-BAB3-957B7429D133}" uniqueName="6" name="Poraba" queryTableFieldId="6" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{911769A8-5CFE-8245-A64B-38797D90A3B5}" uniqueName="11" name="Prikaz" queryTableFieldId="11" dataDxfId="2">
+      <calculatedColumnFormula>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -316,23 +1547,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8D6AF57-84FE-3944-82AB-DB7DC1C050CB}" name="Table3" displayName="Table3" ref="J2:K25" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8D6AF57-84FE-3944-82AB-DB7DC1C050CB}" name="Table3" displayName="Table3" ref="J2:K25" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="J2:K25" xr:uid="{E8D6AF57-84FE-3944-82AB-DB7DC1C050CB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J3:K25">
     <sortCondition ref="J2:J25"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0C7E1327-9FA7-3E43-8151-18CCECA1E09D}" name="Veljavnost" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{079EA12A-47EB-F54A-8E37-30D8BCE75150}" name="Bencin" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0C7E1327-9FA7-3E43-8151-18CCECA1E09D}" name="Veljavnost" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{079EA12A-47EB-F54A-8E37-30D8BCE75150}" name="Bencin" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -370,9 +1601,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,26 +1636,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,26 +1671,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -650,28 +1847,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CECC9D-4E93-D44D-AE31-BECED325B0FB}">
-  <dimension ref="B2:K29"/>
+  <dimension ref="B1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="39" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -700,8 +1906,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
         <v>45051</v>
       </c>
       <c r="C3" s="2">
@@ -720,15 +1926,22 @@
       <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>44930</v>
       </c>
       <c r="K3" s="3">
         <v>1.276</v>
       </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
         <v>45059</v>
       </c>
       <c r="C4" s="2">
@@ -749,15 +1962,19 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>7.01</v>
       </c>
-      <c r="J4" s="5">
+      <c r="H4">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>7.01</v>
+      </c>
+      <c r="J4" s="4">
         <v>44943</v>
       </c>
       <c r="K4" s="3">
         <v>1.288</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
         <v>45068</v>
       </c>
       <c r="C5" s="2">
@@ -778,15 +1995,19 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>6.31</v>
       </c>
-      <c r="J5" s="5">
+      <c r="H5">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>6.31</v>
+      </c>
+      <c r="J5" s="4">
         <v>44957</v>
       </c>
       <c r="K5" s="3">
         <v>1.355</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
         <v>45073</v>
       </c>
       <c r="C6" s="2">
@@ -807,15 +2028,19 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>6.61</v>
       </c>
-      <c r="J6" s="5">
+      <c r="H6">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>6.61</v>
+      </c>
+      <c r="J6" s="4">
         <v>44971</v>
       </c>
       <c r="K6" s="3">
         <v>1.355</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
         <v>45085</v>
       </c>
       <c r="C7" s="2">
@@ -836,15 +2061,19 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>6.86</v>
       </c>
-      <c r="J7" s="5">
+      <c r="H7">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>6.86</v>
+      </c>
+      <c r="J7" s="4">
         <v>44985</v>
       </c>
       <c r="K7" s="3">
         <v>1.359</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
         <v>45093</v>
       </c>
       <c r="C8" s="2">
@@ -865,15 +2094,19 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>6.31</v>
       </c>
-      <c r="J8" s="5">
+      <c r="H8">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>6.31</v>
+      </c>
+      <c r="J8" s="4">
         <v>44999</v>
       </c>
       <c r="K8" s="3">
         <v>1.3740000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
         <v>45099</v>
       </c>
       <c r="C9" s="2">
@@ -894,15 +2127,19 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>6.95</v>
       </c>
-      <c r="J9" s="5">
+      <c r="H9">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>6.95</v>
+      </c>
+      <c r="J9" s="4">
         <v>45013</v>
       </c>
       <c r="K9" s="3">
         <v>1.3740000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
         <v>45113</v>
       </c>
       <c r="C10" s="2">
@@ -923,15 +2160,19 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>7.01</v>
       </c>
-      <c r="J10" s="5">
+      <c r="H10">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>7.01</v>
+      </c>
+      <c r="J10" s="4">
         <v>45028</v>
       </c>
       <c r="K10" s="3">
         <v>1.4159999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
         <v>45122</v>
       </c>
       <c r="C11" s="2">
@@ -952,15 +2193,26 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>6.98</v>
       </c>
-      <c r="J11" s="5">
+      <c r="H11">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>6.98</v>
+      </c>
+      <c r="J11" s="4">
         <v>45041</v>
       </c>
       <c r="K11" s="3">
         <v>1.4159999999999999</v>
       </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
         <v>45129</v>
       </c>
       <c r="C12" s="2">
@@ -981,15 +2233,19 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>7.16</v>
       </c>
-      <c r="J12" s="5">
+      <c r="H12">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>7.16</v>
+      </c>
+      <c r="J12" s="4">
         <v>45055</v>
       </c>
       <c r="K12" s="3">
         <v>1.39</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
         <v>45138</v>
       </c>
       <c r="C13" s="2">
@@ -1010,15 +2266,19 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>6.65</v>
       </c>
-      <c r="J13" s="5">
+      <c r="H13">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>6.65</v>
+      </c>
+      <c r="J13" s="4">
         <v>45069</v>
       </c>
       <c r="K13" s="3">
         <v>1.3819999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
         <v>45151</v>
       </c>
       <c r="C14" s="2">
@@ -1039,15 +2299,19 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>6.89</v>
       </c>
-      <c r="J14" s="5">
+      <c r="H14">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>6.89</v>
+      </c>
+      <c r="J14" s="4">
         <v>45083</v>
       </c>
       <c r="K14" s="3">
         <v>1.4119999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
         <v>45163</v>
       </c>
       <c r="C15" s="2">
@@ -1068,15 +2332,19 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>6.93</v>
       </c>
-      <c r="J15" s="5">
+      <c r="H15">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>6.93</v>
+      </c>
+      <c r="J15" s="4">
         <v>45097</v>
       </c>
       <c r="K15" s="3">
         <v>1.4239999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
         <v>45175</v>
       </c>
       <c r="C16" s="2">
@@ -1097,7 +2365,11 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>7.57</v>
       </c>
-      <c r="J16" s="5">
+      <c r="H16">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>7.57</v>
+      </c>
+      <c r="J16" s="4">
         <v>45111</v>
       </c>
       <c r="K16" s="3">
@@ -1105,7 +2377,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>45184</v>
       </c>
       <c r="C17" s="2">
@@ -1126,7 +2398,11 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>7.28</v>
       </c>
-      <c r="J17" s="5">
+      <c r="H17">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>7.28</v>
+      </c>
+      <c r="J17" s="4">
         <v>45125</v>
       </c>
       <c r="K17" s="3">
@@ -1134,7 +2410,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>45191</v>
       </c>
       <c r="C18" s="2">
@@ -1155,7 +2431,11 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>8.1</v>
       </c>
-      <c r="J18" s="5">
+      <c r="H18">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>8.1</v>
+      </c>
+      <c r="J18" s="4">
         <v>45139</v>
       </c>
       <c r="K18" s="3">
@@ -1163,7 +2443,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>45198</v>
       </c>
       <c r="C19" s="2">
@@ -1184,7 +2464,11 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>7.23</v>
       </c>
-      <c r="J19" s="5">
+      <c r="H19">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>7.23</v>
+      </c>
+      <c r="J19" s="4">
         <v>45155</v>
       </c>
       <c r="K19" s="3">
@@ -1192,7 +2476,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>45205</v>
       </c>
       <c r="C20" s="2">
@@ -1213,7 +2497,11 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>6.45</v>
       </c>
-      <c r="J20" s="5">
+      <c r="H20">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>6.45</v>
+      </c>
+      <c r="J20" s="4">
         <v>45167</v>
       </c>
       <c r="K20" s="3">
@@ -1221,7 +2509,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>45213</v>
       </c>
       <c r="C21" s="2">
@@ -1242,7 +2530,11 @@
         <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
         <v>7.16</v>
       </c>
-      <c r="J21" s="5">
+      <c r="H21">
+        <f>ROUND(100*realna_poraba_cupra__2[[#This Row],[Litri]]/realna_poraba_cupra__2[[#This Row],[Prevoženo]],2)</f>
+        <v>7.16</v>
+      </c>
+      <c r="J21" s="4">
         <v>45181</v>
       </c>
       <c r="K21" s="3">
@@ -1250,7 +2542,11 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J22" s="5">
+      <c r="B22" s="4"/>
+      <c r="C22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="J22" s="4">
         <v>45195</v>
       </c>
       <c r="K22" s="3">
@@ -1258,7 +2554,10 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J23" s="5">
+      <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="4">
         <v>45209</v>
       </c>
       <c r="K23" s="3">
@@ -1266,7 +2565,28 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J24" s="5">
+      <c r="B24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="4">
         <v>45223</v>
       </c>
       <c r="K24" s="3">
@@ -1274,7 +2594,28 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J25" s="5">
+      <c r="B25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1789</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1850</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2321</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1138</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1986</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1185</v>
+      </c>
+      <c r="J25" s="4">
         <v>45237</v>
       </c>
       <c r="K25" s="3">
@@ -1282,28 +2623,66 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6.6433333333333335</v>
+      </c>
+      <c r="D26" s="2">
+        <v>6.706666666666667</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6.9499999999999993</v>
+      </c>
+      <c r="F26" s="2">
+        <v>6.91</v>
+      </c>
+      <c r="G26" s="2">
+        <v>7.5450000000000008</v>
+      </c>
+      <c r="H26" s="2">
+        <v>6.8049999999999997</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H4:H22">
+    <cfRule type="dataBar" priority="2">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8859D38F-A3D0-4734-A847-91DED6AA9210}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8859D38F-A3D0-4734-A847-91DED6AA9210}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H4:H22</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
